--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326207.385666833</v>
+        <v>2401737.055331639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.8613066552054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>286.1092675407521</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>9.898682581535192</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>119.8298937360216</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>191.1305434259452</v>
       </c>
     </row>
     <row r="6">
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>127.004412707233</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>99.66075074687578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.1228193328343</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.4456281581539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>123.5756458870621</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.2174302415112</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>70.78408973756154</v>
+        <v>82.33291106546837</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>101.4950386131015</v>
       </c>
       <c r="H19" t="n">
-        <v>18.53783461872654</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>12.23273337288869</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>24.77826981700461</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>36.98273601213128</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.30197918502502</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>47.27820527287646</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>43.8798111707917</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>92.59215181082149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>101.2898147863548</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>240.400812004216</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498005</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>49.38162151975434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>907.3941227570563</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>496.4082179674487</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>540.5667372199621</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>540.5667372199621</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>540.5667372199621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>540.5667372199621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>540.5667372199621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>540.5667372199621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>540.5667372199621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.5667372199621</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.146815977588</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.146815977588</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>753.3585633793437</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3726585897361</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>328.449254528327</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,40 +4731,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>154.6104068172087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.966038586256</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.966038586256</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2285.204253224348</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1298.996260473455</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5297,31 +5299,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1062.583317521776</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="C16" t="n">
-        <v>893.6471345938694</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352016</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X16" t="n">
-        <v>1244.231782352016</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y16" t="n">
-        <v>1244.231782352016</v>
+        <v>754.8946022306075</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.1174986139264</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="C19" t="n">
-        <v>284.1174986139264</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="D19" t="n">
-        <v>284.1174986139264</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="E19" t="n">
-        <v>284.1174986139264</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="F19" t="n">
-        <v>284.1174986139264</v>
+        <v>199.7373324836207</v>
       </c>
       <c r="G19" t="n">
-        <v>115.942176933747</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687014</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811267</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441661</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441661</v>
+        <v>381.3857973138604</v>
       </c>
       <c r="Y19" t="n">
-        <v>465.7659634441661</v>
+        <v>381.3857973138604</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609671</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550802</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181196</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X22" t="n">
-        <v>429.5442619818684</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -5999,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6084,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3914.311870797675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3914.311870797675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808406</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771445</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>4316.752914771445</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4095.960335627915</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6233,10 +6235,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6254,22 +6256,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147079</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211718</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011332</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028583</v>
@@ -6385,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771456</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.787631771456</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>1209.787631771456</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.19758416447</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>121.7645451825333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6622,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>4091.069939605065</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1340.085404217832</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1340.085404217832</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.956765431391</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V34" t="n">
-        <v>796.2722772255036</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>4272.718404435305</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>4272.718404435305</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>4272.718404435305</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6938,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>3443.999848753677</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3904.376443449036</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4054.493082861371</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4054.493082861371</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7156,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7664,31 +7666,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.314990659902</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>223.6742649934491</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>171.2966883299262</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>23.61454994042614</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>77.83138328065081</v>
+        <v>66.28256195274399</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>64.99852985027611</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3759937488096</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>36.75020405346345</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>213.4769220161484</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>123.8372032012077</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>181.6019173399635</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>124.6118491825111</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>150.6426047107268</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>242.6431871657993</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>159.5454915130065</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>9.129430677917227</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>11.73683131961201</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>176.3280338692828</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.3243240297</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196782</v>
       </c>
       <c r="L2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="N2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196783</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,28 +26426,28 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481755</v>
+        <v>-252062.451448175</v>
       </c>
       <c r="C6" t="n">
         <v>337905.4277663691</v>
       </c>
       <c r="D6" t="n">
-        <v>337905.4277663692</v>
+        <v>337905.4277663693</v>
       </c>
       <c r="E6" t="n">
-        <v>-79458.77135823734</v>
+        <v>-79458.77135823735</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.2651186588</v>
+        <v>445701.2651186586</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.2651186591</v>
+        <v>445701.2651186595</v>
       </c>
       <c r="H6" t="n">
+        <v>445701.265118659</v>
+      </c>
+      <c r="I6" t="n">
         <v>445701.2651186592</v>
       </c>
-      <c r="I6" t="n">
-        <v>445701.265118659</v>
-      </c>
       <c r="J6" t="n">
-        <v>269278.0459260663</v>
+        <v>269278.0459260665</v>
       </c>
       <c r="K6" t="n">
-        <v>445701.2651186593</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="L6" t="n">
-        <v>445701.265118659</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="M6" t="n">
         <v>310900.2498848218</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.2651186588</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.265118659</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="P6" t="n">
-        <v>445701.2651186592</v>
+        <v>445701.2651186594</v>
       </c>
     </row>
   </sheetData>
@@ -26738,31 +26740,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.87253500827518</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>127.6749024800429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>242.2389607422928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>204.0928790283355</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>195.1073952301084</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>125.133230616595</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>126.0489046421614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>72.29289347613724</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.79231049789973</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>32.59524295473302</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29490,7 +29492,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32940,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33019,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36446,19 +36448,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345571</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36996,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336981</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
@@ -37403,7 +37405,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>378.3901032614508</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401737.055331639</v>
+        <v>2394720.040439927</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>20.32614047874948</v>
       </c>
       <c r="G2" t="n">
-        <v>286.1092675407521</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>160.3349025342647</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>155.6516553727297</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.1305434259452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>177.0126892388643</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>102.1228193328343</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.2174302415112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>122.6238729027263</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>82.33291106546837</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>74.79796298519341</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>101.4950386131015</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>88.35924640834604</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.98273601213128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065117</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>252.8505008312589</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>43.8798111707917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051986</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>240.400812004216</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.182375355301</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.182375355301</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="D2" t="n">
-        <v>1293.182375355301</v>
+        <v>1358.887193518369</v>
       </c>
       <c r="E2" t="n">
-        <v>907.3941227570563</v>
+        <v>973.098940920125</v>
       </c>
       <c r="F2" t="n">
-        <v>496.4082179674487</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.782215419422</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>566.1745372021267</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>566.1745372021267</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>566.1745372021267</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>566.1745372021267</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>566.1745372021267</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2539.925196702334</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2321.290529674397</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2067.528744312488</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2067.528744312488</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1714.760089042374</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>785.9213106858012</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>785.9213106858012</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>400.133058087557</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2538.966038586256</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2538.966038586256</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2285.204253224348</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1954.141365880777</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.141365880777</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5202,10 +5202,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>896.58386925998</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.996260473455</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.996260473455</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y13" t="n">
-        <v>1298.996260473455</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>754.8946022306075</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="C16" t="n">
-        <v>754.8946022306075</v>
+        <v>786.1669606376673</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>786.1669606376673</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>638.2538670552742</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>491.3639195573638</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>323.1885978771844</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>172.7705894251277</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5439,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>754.8946022306075</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X16" t="n">
-        <v>754.8946022306075</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y16" t="n">
-        <v>754.8946022306075</v>
+        <v>955.1031435655742</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.7373324836207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>199.7373324836207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>199.7373324836207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>199.7373324836207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>199.7373324836207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488384</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118777</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>381.3857973138604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.3857973138604</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1336.117678709276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1336.117678709276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1336.117678709276</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.117678709276</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.700508672316</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,43 +6220,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147079</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211718</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011332</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771456</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771456</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1172.431332769303</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4091.069939605065</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.133756677159</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.133756677159</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094765</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V34" t="n">
-        <v>4317.041446021964</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W34" t="n">
-        <v>4272.718404435305</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X34" t="n">
-        <v>4272.718404435305</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y34" t="n">
-        <v>4272.718404435305</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7122,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7165,22 +7165,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,13 +7359,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952637</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>855.8834252987245</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>855.8834252987245</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119831</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>223.6742649934491</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>171.2966883299262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.61454994042614</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>163.6134794958511</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.28256195274399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.62128247907856</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>64.99852985027611</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>60.25622660986632</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>36.75020405346345</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.6019173399635</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709159</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>33.38685156731842</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>242.6431871657993</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>11.73683131961201</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196783</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,7 +26444,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.451448175</v>
+        <v>-252062.4514481755</v>
       </c>
       <c r="C6" t="n">
+        <v>337905.4277663692</v>
+      </c>
+      <c r="D6" t="n">
         <v>337905.4277663691</v>
       </c>
-      <c r="D6" t="n">
-        <v>337905.4277663693</v>
-      </c>
       <c r="E6" t="n">
-        <v>-79458.77135823735</v>
+        <v>-80433.36261795899</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.2651186586</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.2651186595</v>
+        <v>444726.6738589378</v>
       </c>
       <c r="H6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="I6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="J6" t="n">
-        <v>269278.0459260665</v>
+        <v>268303.4546663443</v>
       </c>
       <c r="K6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="L6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="M6" t="n">
-        <v>310900.2498848218</v>
+        <v>309925.6586250998</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="P6" t="n">
-        <v>445701.2651186594</v>
+        <v>444726.6738589376</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>386.5499052629619</v>
       </c>
       <c r="G2" t="n">
-        <v>127.6749024800429</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.83478528866331</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>51.8106364157542</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>18.76405743624179</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>195.1073952301084</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>229.8633565028471</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>72.29289347613724</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29492,7 +29492,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>506.0379672345571</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>378.3901032614508</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2394720.040439927</v>
+        <v>2399659.30328896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>20.32614047874948</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>252.8185519488617</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>160.3349025342647</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>128.6990597847457</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>356.491624907989</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>155.6516553727297</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>132.9342137328511</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>83.85112090809194</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>177.0126892388643</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.2520545444274</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>122.6238729027263</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.79796298519341</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498012</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>88.35924640834604</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.03801681746301</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>252.8505008312589</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>10.13442842447196</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051986</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>140.8574502810799</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>263.3452520788646</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1717.15289212512</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="C2" t="n">
-        <v>1717.15289212512</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="D2" t="n">
-        <v>1358.887193518369</v>
+        <v>1182.70970583254</v>
       </c>
       <c r="E2" t="n">
-        <v>973.098940920125</v>
+        <v>796.9214532342953</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>789.9759524850919</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.15289212512</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>383.841510736975</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>383.841510736975</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>566.1745372021267</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>566.1745372021267</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>566.1745372021267</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>566.1745372021267</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>566.1745372021267</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>338.1849863041093</v>
+        <v>383.841510736975</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>383.841510736975</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1172.012887498878</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>813.747188892128</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>427.9589362938837</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2539.925196702334</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2321.290529674397</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2067.528744312488</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2067.528744312488</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.760089042374</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1341.294330781294</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1341.294330781294</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626213</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C8" t="n">
-        <v>785.9213106858012</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>785.9213106858012</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>400.133058087557</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626213</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626213</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,34 +5053,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1306.742478088784</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1306.742478088784</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.268357465867</v>
+        <v>1017.613839302342</v>
       </c>
       <c r="V13" t="n">
-        <v>896.58386925998</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="W13" t="n">
-        <v>896.58386925998</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619627</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184325</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5302,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>955.1031435655742</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1669606376673</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
-        <v>786.1669606376673</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E16" t="n">
-        <v>638.2538670552742</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F16" t="n">
-        <v>491.3639195573638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>323.1885978771844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>172.7705894251277</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655742</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>955.1031435655742</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>955.1031435655742</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,61 +5506,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,58 +5746,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.8933943850831</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,10 +6411,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011506</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,10 +6648,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823808</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>287.5797832182599</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1019.726309053207</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V34" t="n">
-        <v>765.0418208473204</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W34" t="n">
-        <v>475.6246508103599</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X34" t="n">
-        <v>247.6350999123426</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>437.6964226305956</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412806</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412806</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>402.2569289289448</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>254.3438353465517</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>107.4538878486414</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>107.4538878486414</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7098,49 +7098,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352011</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150505</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>954.8146123150505</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>734.0220331715203</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>874.6385818722727</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>874.6385818722727</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>874.6385818722727</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,13 +7727,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119831</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776764</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928337</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172076</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298392</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928337</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928347</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599069</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>7.668755439175897</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>163.6134794958511</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>87.77261239840718</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>35.62128247907856</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>60.25622660986632</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.3959458291062</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>33.38685156731842</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>138.7793999430642</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>38.97452990085736</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>23.17774625772637</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240297</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="G2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196781</v>
       </c>
       <c r="O2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481755</v>
+        <v>-252062.4514481754</v>
       </c>
       <c r="C6" t="n">
+        <v>337905.4277663693</v>
+      </c>
+      <c r="D6" t="n">
         <v>337905.4277663692</v>
       </c>
-      <c r="D6" t="n">
-        <v>337905.4277663691</v>
-      </c>
       <c r="E6" t="n">
-        <v>-80433.36261795899</v>
+        <v>-79556.23048420891</v>
       </c>
       <c r="F6" t="n">
-        <v>444726.6738589371</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="G6" t="n">
-        <v>444726.6738589378</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="H6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926866</v>
       </c>
       <c r="I6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926869</v>
       </c>
       <c r="J6" t="n">
-        <v>268303.4546663443</v>
+        <v>269180.5868000945</v>
       </c>
       <c r="K6" t="n">
-        <v>444726.6738589371</v>
+        <v>445603.8059926869</v>
       </c>
       <c r="L6" t="n">
-        <v>444726.6738589371</v>
+        <v>445603.8059926867</v>
       </c>
       <c r="M6" t="n">
-        <v>309925.6586250998</v>
+        <v>310802.7907588498</v>
       </c>
       <c r="N6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926866</v>
       </c>
       <c r="O6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="P6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926868</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>386.5499052629619</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>160.9656180719333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>51.8106364157542</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>97.01059560429147</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>50.3844208337224</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>18.76405743624179</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12.48683429008011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>281.4217708629156</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>229.8633565028471</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,43 +34441,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337006</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.37802194151</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055998</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221136</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
